--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_150.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_150.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_150.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_150.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,14 +16,89 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
   <si>
     <t>STR</t>
   </si>
   <si>
+    <t>reviewer_ID</t>
+  </si>
+  <si>
+    <t>reviewer_name</t>
+  </si>
+  <si>
+    <t>Review_ID</t>
+  </si>
+  <si>
+    <t>Date_of_scraping</t>
+  </si>
+  <si>
+    <t>ReviewURL</t>
+  </si>
+  <si>
+    <t>Tripadvisor_gcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_dcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_rcode</t>
+  </si>
+  <si>
+    <t>review_date</t>
+  </si>
+  <si>
+    <t>review_title</t>
+  </si>
+  <si>
+    <t>review_content</t>
+  </si>
+  <si>
+    <t>review_rating</t>
+  </si>
+  <si>
+    <t>trip_month</t>
+  </si>
+  <si>
+    <t>trip_purpose</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>rooms</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Cleanliness</t>
+  </si>
+  <si>
+    <t>Sleep Quality</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Picture(yes=1)</t>
+  </si>
+  <si>
+    <t>respondent</t>
+  </si>
+  <si>
+    <t>response_date</t>
+  </si>
+  <si>
+    <t>response_text</t>
+  </si>
+  <si>
     <t>Hotel_Name</t>
   </si>
   <si>
+    <t>State</t>
+  </si>
+  <si>
     <t>City</t>
   </si>
   <si>
@@ -48,6 +123,9 @@
     <t>Motel 6 Harvey</t>
   </si>
   <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
     <t>Harvey</t>
   </si>
   <si>
@@ -61,78 +139,6 @@
   </si>
   <si>
     <t>32</t>
-  </si>
-  <si>
-    <t>reviewer_ID</t>
-  </si>
-  <si>
-    <t>reviewer_name</t>
-  </si>
-  <si>
-    <t>Review_ID</t>
-  </si>
-  <si>
-    <t>Date_of_scraping</t>
-  </si>
-  <si>
-    <t>ReviewURL</t>
-  </si>
-  <si>
-    <t>Tripadvisor_gcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_dcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_rcode</t>
-  </si>
-  <si>
-    <t>review_date</t>
-  </si>
-  <si>
-    <t>review_title</t>
-  </si>
-  <si>
-    <t>review_content</t>
-  </si>
-  <si>
-    <t>review_rating</t>
-  </si>
-  <si>
-    <t>trip_month</t>
-  </si>
-  <si>
-    <t>trip_purpose</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>rooms</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Cleanliness</t>
-  </si>
-  <si>
-    <t>Sleep Quality</t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>Picture(yes=1)</t>
-  </si>
-  <si>
-    <t>respondent</t>
-  </si>
-  <si>
-    <t>response_date</t>
-  </si>
-  <si>
-    <t>response_text</t>
   </si>
 </sst>
 </file>
@@ -503,34 +509,53 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>4144</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="n">
-        <v>70058</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
+      <c r="O1" t="s">
         <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -555,76 +580,63 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T1" t="s">
         <v>33</v>
       </c>
-      <c r="U1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>4144</v>
+      </c>
+      <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="V1" t="s">
+      <c r="C2" t="s">
         <v>35</v>
       </c>
-      <c r="W1" t="s">
+      <c r="D2" t="s">
         <v>36</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E2" t="n">
+        <v>70058</v>
+      </c>
+      <c r="F2" t="s">
         <v>37</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
         <v>38</v>
+      </c>
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_150.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_150.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="284">
   <si>
     <t>STR</t>
   </si>
@@ -91,6 +91,749 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>10/14/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d93098-r621460543-Motel_6_Harvey-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>40209</t>
+  </si>
+  <si>
+    <t>93098</t>
+  </si>
+  <si>
+    <t>621460543</t>
+  </si>
+  <si>
+    <t>10/02/2018</t>
+  </si>
+  <si>
+    <t>This is not a motel 6</t>
+  </si>
+  <si>
+    <t>Every nightmare you could have when it comes to a motel will come true here.  I called motel 6's corporate office after a terrible experience here and they said this is not a motel 6. Run and don't look back</t>
+  </si>
+  <si>
+    <t>October 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d93098-r620336629-Motel_6_Harvey-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>620336629</t>
+  </si>
+  <si>
+    <t>09/28/2018</t>
+  </si>
+  <si>
+    <t>Run away</t>
+  </si>
+  <si>
+    <t>Please if you’re thinking to book, run away .... turn back and just drive.This is the worst motel i’ve been in!! No towels, no trash can, no soap, ....  dirty floors, yellow stains on the bed, ... we were lucky to have a roll of toilet paper.</t>
+  </si>
+  <si>
+    <t>September 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d93098-r550274463-Motel_6_Harvey-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>550274463</t>
+  </si>
+  <si>
+    <t>12/30/2017</t>
+  </si>
+  <si>
+    <t>WORST MOTEL EVER</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE. Waited 3 hours for our room to be finished to be told it was going to be done last, got a new room. The blankets and sheets had cigarette burns in a non smoking room. The hot water doesnt work (after me and my boyfriend drove for 14 hours to get here and were ready for a shower and a nap) to be told the refund would take two days. The manager wouldn't let us talk to the owner. We were on a budget and used our money to get this hotel room.  We are npw on pir way to pay to shower at a truck stop. I REPEAT DO NOT STAY HERE.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Harvey, responded to this reviewResponded January 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 2, 2018</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE. Waited 3 hours for our room to be finished to be told it was going to be done last, got a new room. The blankets and sheets had cigarette burns in a non smoking room. The hot water doesnt work (after me and my boyfriend drove for 14 hours to get here and were ready for a shower and a nap) to be told the refund would take two days. The manager wouldn't let us talk to the owner. We were on a budget and used our money to get this hotel room.  We are npw on pir way to pay to shower at a truck stop. I REPEAT DO NOT STAY HERE.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d93098-r467565470-Motel_6_Harvey-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>467565470</t>
+  </si>
+  <si>
+    <t>03/15/2017</t>
+  </si>
+  <si>
+    <t>Emergency stay.</t>
+  </si>
+  <si>
+    <t>The family was on vacation camping and we had a storm come in and everything in one tent got wet. So we got everything dryed and headed to the room for the night. The night lady was not friendly at all. Get into or room and the tolet dose not work, no land line phone in the room either. So I had to walk back up to the window . She sent a man to my room that didn't fix one thing. Then to top it all off there where people all night yelling at all hours.   I was so happy to leave.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team  at Motel 6 Harvey, responded to this reviewResponded March 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 16, 2017</t>
+  </si>
+  <si>
+    <t>The family was on vacation camping and we had a storm come in and everything in one tent got wet. So we got everything dryed and headed to the room for the night. The night lady was not friendly at all. Get into or room and the tolet dose not work, no land line phone in the room either. So I had to walk back up to the window . She sent a man to my room that didn't fix one thing. Then to top it all off there where people all night yelling at all hours.   I was so happy to leave.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d93098-r466651513-Motel_6_Harvey-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>466651513</t>
+  </si>
+  <si>
+    <t>03/12/2017</t>
+  </si>
+  <si>
+    <t>They Rebooked My Room And Lost My Luggage</t>
+  </si>
+  <si>
+    <t>I booked and stayed a Friday and Saturday night. Friday night went to the office I was told they had re-booked my room. She could not find my receipt.  I looked for it and found it.  I wasn't not too worried, but they had no idea where my suitcase and clothes handing in the room were.  After a half hour of searching I found my bag unharmed on the maid's cart. I expected some kind of recompense for the mess, like 'comping' me that night.  She said $30 dollars was the most she could give me but I had to sign for it, which I did.  No help from corporate or customer service either.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Motel 6 Harvey, responded to this reviewResponded March 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 14, 2017</t>
+  </si>
+  <si>
+    <t>I booked and stayed a Friday and Saturday night. Friday night went to the office I was told they had re-booked my room. She could not find my receipt.  I looked for it and found it.  I wasn't not too worried, but they had no idea where my suitcase and clothes handing in the room were.  After a half hour of searching I found my bag unharmed on the maid's cart. I expected some kind of recompense for the mess, like 'comping' me that night.  She said $30 dollars was the most she could give me but I had to sign for it, which I did.  No help from corporate or customer service either.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d93098-r439486669-Motel_6_Harvey-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>439486669</t>
+  </si>
+  <si>
+    <t>11/23/2016</t>
+  </si>
+  <si>
+    <t>Terrible even for a Motel 6</t>
+  </si>
+  <si>
+    <t>Dirty, not maintained, illicit activities in the rooms near the office.  the office was locked when we checked out and the employees inside refused to open the door.  We like Motel 6 for road trips due to their locations, pet policies, etc and this is the WORST we have ever stayed in</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d93098-r414414304-Motel_6_Harvey-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>414414304</t>
+  </si>
+  <si>
+    <t>09/03/2016</t>
+  </si>
+  <si>
+    <t>Do not recommend</t>
+  </si>
+  <si>
+    <t>Last time we came to New Orleans, we stayed in another Motel 6, and it was nice and clean, so I thought that this one would be the same. Oh boy was I wrong. The place looks filthy and old. Pieces of ceiling are hanging, bathtub looks very old, and towels are very thin. The only pros i could find is a small refrigerator and a free wifi. I won't stay here again.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d93098-r378968919-Motel_6_Harvey-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>378968919</t>
+  </si>
+  <si>
+    <t>06/02/2016</t>
+  </si>
+  <si>
+    <t>Very very bad experience</t>
+  </si>
+  <si>
+    <t>We checked in here at motel 6 due to fiancee working near by he got off from work at 5pm we went and had supper then come to room to take shower and the water remained cold there was no hot water ,floors dirty,we asked for a 4:30am wake up call and we shure got the wake up call at 11pm that same night , we was just getting in middle of deep sleep after all the noises of all the bad people hanging around our door and we  was afraid we might get robbed ,my fiancee thought when we got that call it was really 4:30 am so he got dressed for work then checked the time what a surprise it was 11pm omg then tried to go use restroom before all that and toilet was overflowing all over the room. luckily we did get someone to come unstop the toilet which we did not stop up ,..the sheets were stained..and when we arrived there was no refrigerator or microwave and finally they brought us one except the refrigerator is also leaking all over the floor ..i would never advise anyone to stay at this hotelMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>We checked in here at motel 6 due to fiancee working near by he got off from work at 5pm we went and had supper then come to room to take shower and the water remained cold there was no hot water ,floors dirty,we asked for a 4:30am wake up call and we shure got the wake up call at 11pm that same night , we was just getting in middle of deep sleep after all the noises of all the bad people hanging around our door and we  was afraid we might get robbed ,my fiancee thought when we got that call it was really 4:30 am so he got dressed for work then checked the time what a surprise it was 11pm omg then tried to go use restroom before all that and toilet was overflowing all over the room. luckily we did get someone to come unstop the toilet which we did not stop up ,..the sheets were stained..and when we arrived there was no refrigerator or microwave and finally they brought us one except the refrigerator is also leaking all over the floor ..i would never advise anyone to stay at this hotelMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d93098-r347781998-Motel_6_Harvey-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>347781998</t>
+  </si>
+  <si>
+    <t>02/14/2016</t>
+  </si>
+  <si>
+    <t>Poor Service, Poor cleanliness Poor Condition!</t>
+  </si>
+  <si>
+    <t>I checked in after traveling all day, it was $178 for 2 nights and was told we take cash only, once I paid, she took my drivers license and made a copy, wrote on the top of the page the room number and paid $178, handed me my keys and told me where the room is, no receipt offered or anything, that is their check in. I was told the room would have a refrigerator and microwave oven, it had 1 straight back chair, no refrigerator no microwave the only table in the room with the one straight back chair had a TV right in the middle of it bolted down, the bathroom tub was not clean and had several dead mosquitoes,  I picked up the phone to call the desk, and had no dial tone, the cord for the phone had been ripped out of the back of it, I called the desk from my cell phone to complain and was told, "I can do nothing, but I will have a refrigerator and microwave put in tomorrow"   when told the condition of the room, I asked for a refund or another room and was told it was against the policy and she could do nothing.  I had to stay, after I cleaned the tub/shower I went to take a shower and there was only one wash rag and two towels, I called and asked for more and was told...I checked in after traveling all day, it was $178 for 2 nights and was told we take cash only, once I paid, she took my drivers license and made a copy, wrote on the top of the page the room number and paid $178, handed me my keys and told me where the room is, no receipt offered or anything, that is their check in. I was told the room would have a refrigerator and microwave oven, it had 1 straight back chair, no refrigerator no microwave the only table in the room with the one straight back chair had a TV right in the middle of it bolted down, the bathroom tub was not clean and had several dead mosquitoes,  I picked up the phone to call the desk, and had no dial tone, the cord for the phone had been ripped out of the back of it, I called the desk from my cell phone to complain and was told, "I can do nothing, but I will have a refrigerator and microwave put in tomorrow"   when told the condition of the room, I asked for a refund or another room and was told it was against the policy and she could do nothing.  I had to stay, after I cleaned the tub/shower I went to take a shower and there was only one wash rag and two towels, I called and asked for more and was told it would be the next day before any was available,  I have never been treated as bad in a motel as I was in that one, the Ice machine was located right out side my door and it would not dispense ice but every few min it would make a dumping sound, this was all night and woke me several times, it sounded as if someone were breaking glass out of a car window it was so loud, upon checking out, I informed them of my displeasure and was told we will add it to the list, I asked for a receipt and she wrote on a piece of paper the room number and amount and told me to put my name on the top of the paper, upon looking at the paper it was a "check in invoice"  I would never stay at this place again and wold not recommend anyone else to say here, bad service, bad rooms and not clean!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>I checked in after traveling all day, it was $178 for 2 nights and was told we take cash only, once I paid, she took my drivers license and made a copy, wrote on the top of the page the room number and paid $178, handed me my keys and told me where the room is, no receipt offered or anything, that is their check in. I was told the room would have a refrigerator and microwave oven, it had 1 straight back chair, no refrigerator no microwave the only table in the room with the one straight back chair had a TV right in the middle of it bolted down, the bathroom tub was not clean and had several dead mosquitoes,  I picked up the phone to call the desk, and had no dial tone, the cord for the phone had been ripped out of the back of it, I called the desk from my cell phone to complain and was told, "I can do nothing, but I will have a refrigerator and microwave put in tomorrow"   when told the condition of the room, I asked for a refund or another room and was told it was against the policy and she could do nothing.  I had to stay, after I cleaned the tub/shower I went to take a shower and there was only one wash rag and two towels, I called and asked for more and was told...I checked in after traveling all day, it was $178 for 2 nights and was told we take cash only, once I paid, she took my drivers license and made a copy, wrote on the top of the page the room number and paid $178, handed me my keys and told me where the room is, no receipt offered or anything, that is their check in. I was told the room would have a refrigerator and microwave oven, it had 1 straight back chair, no refrigerator no microwave the only table in the room with the one straight back chair had a TV right in the middle of it bolted down, the bathroom tub was not clean and had several dead mosquitoes,  I picked up the phone to call the desk, and had no dial tone, the cord for the phone had been ripped out of the back of it, I called the desk from my cell phone to complain and was told, "I can do nothing, but I will have a refrigerator and microwave put in tomorrow"   when told the condition of the room, I asked for a refund or another room and was told it was against the policy and she could do nothing.  I had to stay, after I cleaned the tub/shower I went to take a shower and there was only one wash rag and two towels, I called and asked for more and was told it would be the next day before any was available,  I have never been treated as bad in a motel as I was in that one, the Ice machine was located right out side my door and it would not dispense ice but every few min it would make a dumping sound, this was all night and woke me several times, it sounded as if someone were breaking glass out of a car window it was so loud, upon checking out, I informed them of my displeasure and was told we will add it to the list, I asked for a receipt and she wrote on a piece of paper the room number and amount and told me to put my name on the top of the paper, upon looking at the paper it was a "check in invoice"  I would never stay at this place again and wold not recommend anyone else to say here, bad service, bad rooms and not clean!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d93098-r320678789-Motel_6_Harvey-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>320678789</t>
+  </si>
+  <si>
+    <t>10/21/2015</t>
+  </si>
+  <si>
+    <t>Disappointed</t>
+  </si>
+  <si>
+    <t>Based on my experience on 17-19 Oct, this hotel didn't provide me with floor toilet not shampoo, which I think is a basic thing in any hotel. I am disappointed but I gotta say that the internet speed is fast. The room condition however is not very good maintained, the pillows smell. I am not even sure if they were cleaned or not.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>6Team, brand expericened team member at Motel 6 Harvey, responded to this reviewResponded October 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 22, 2015</t>
+  </si>
+  <si>
+    <t>Based on my experience on 17-19 Oct, this hotel didn't provide me with floor toilet not shampoo, which I think is a basic thing in any hotel. I am disappointed but I gotta say that the internet speed is fast. The room condition however is not very good maintained, the pillows smell. I am not even sure if they were cleaned or not.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d93098-r304733368-Motel_6_Harvey-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>304733368</t>
+  </si>
+  <si>
+    <t>08/29/2015</t>
+  </si>
+  <si>
+    <t>found a used condom in the trash.</t>
+  </si>
+  <si>
+    <t>This place is garbage. The room was dirty, there was hairballs on the floor, the tub looked like it hadn't been cleaned, and there was cigarette ashes around the tub. To top it off I found a condom in my trash. When I tried to talk to the front desk clerk( Patty Sanchez) she called me a liar. Refused to switch my room or refund my money.  I've contacted motel 6 and they tell me they have to investigate. This is 3 weeks ago and they are still investigating. This place is worse than terrible. There is no real accountability for these people so they just don't care. Go down the street to Travelodge.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>6Team, brand expericened team member at Motel 6 Harvey, responded to this reviewResponded August 31, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 31, 2015</t>
+  </si>
+  <si>
+    <t>This place is garbage. The room was dirty, there was hairballs on the floor, the tub looked like it hadn't been cleaned, and there was cigarette ashes around the tub. To top it off I found a condom in my trash. When I tried to talk to the front desk clerk( Patty Sanchez) she called me a liar. Refused to switch my room or refund my money.  I've contacted motel 6 and they tell me they have to investigate. This is 3 weeks ago and they are still investigating. This place is worse than terrible. There is no real accountability for these people so they just don't care. Go down the street to Travelodge.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d93098-r293528891-Motel_6_Harvey-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>293528891</t>
+  </si>
+  <si>
+    <t>07/28/2015</t>
+  </si>
+  <si>
+    <t>Never Stay Here Again, Ever !</t>
+  </si>
+  <si>
+    <t>To make a long story short; the staff here is so unconcerned about the guest that pay their money to stay here. The staff will knock on your door, and ask if you need your room clean; but will not return to clean it.  No one takes your garbage out, they don't supply you with soap days after check in. The ac doesn't keep your room cold as you would like it to be. The fridge didn't keep my food cold. I lost my food. Didn't know that the fridge didn't work at all. Had a 2 inch gap under the front door. I could see people feet as they passed in front my door. Heat and insects entered under the door. Never go to this "Motel 6, In Harvey, Louisiana". MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Harvey, responded to this reviewResponded July 31, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2015</t>
+  </si>
+  <si>
+    <t>To make a long story short; the staff here is so unconcerned about the guest that pay their money to stay here. The staff will knock on your door, and ask if you need your room clean; but will not return to clean it.  No one takes your garbage out, they don't supply you with soap days after check in. The ac doesn't keep your room cold as you would like it to be. The fridge didn't keep my food cold. I lost my food. Didn't know that the fridge didn't work at all. Had a 2 inch gap under the front door. I could see people feet as they passed in front my door. Heat and insects entered under the door. Never go to this "Motel 6, In Harvey, Louisiana". More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d93098-r283238818-Motel_6_Harvey-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>283238818</t>
+  </si>
+  <si>
+    <t>06/26/2015</t>
+  </si>
+  <si>
+    <t>Worst motel ever!!!!!!</t>
+  </si>
+  <si>
+    <t>My wife booked 2 rooms from a different web service, we were having trouble finding rooms so booked them. They looked ok on their website. Drove up andtheir were 2 people how were obviously high in the "lobby" and 1 just outside also. I told the person behind the counter that we would not be staying, she didn't even ask why. The hotel is fighting the refund, even though we canceled within  20 minutes of booking. DO NOT STAY OR BOOK A ROOM HERE.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Harvey, responded to this reviewResponded June 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 29, 2015</t>
+  </si>
+  <si>
+    <t>My wife booked 2 rooms from a different web service, we were having trouble finding rooms so booked them. They looked ok on their website. Drove up andtheir were 2 people how were obviously high in the "lobby" and 1 just outside also. I told the person behind the counter that we would not be staying, she didn't even ask why. The hotel is fighting the refund, even though we canceled within  20 minutes of booking. DO NOT STAY OR BOOK A ROOM HERE.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d93098-r257904480-Motel_6_Harvey-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>257904480</t>
+  </si>
+  <si>
+    <t>03/05/2015</t>
+  </si>
+  <si>
+    <t>Never book a night for these people.</t>
+  </si>
+  <si>
+    <t>I don't know where to start...the service is awful. House keeping come when you don't need them and they always want you to check out 30 min before your check out time just for their convenience and when you do need them their no where to be found.The rooms are horibale the floors are always dirty,it doesn't matter which room I stay in I always end up with dirt on my feet the sheets are always stained and dirty and I always have to run down to the office to get what I need, 9 time out of 10 there's always something they don't have. I encourage you never to get a room here. The only good thing good i can say about this motel is its location isn't half bad  MoreShow less</t>
+  </si>
+  <si>
+    <t>I don't know where to start...the service is awful. House keeping come when you don't need them and they always want you to check out 30 min before your check out time just for their convenience and when you do need them their no where to be found.The rooms are horibale the floors are always dirty,it doesn't matter which room I stay in I always end up with dirt on my feet the sheets are always stained and dirty and I always have to run down to the office to get what I need, 9 time out of 10 there's always something they don't have. I encourage you never to get a room here. The only good thing good i can say about this motel is its location isn't half bad  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d93098-r257353401-Motel_6_Harvey-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>257353401</t>
+  </si>
+  <si>
+    <t>03/02/2015</t>
+  </si>
+  <si>
+    <t>OMG Stay away from this place!!!</t>
+  </si>
+  <si>
+    <t>First of all, Motel 6 advertises that you get an AARP or Senior discount, the clerk said there was no such discount.  We took the room because it was late in the night, we saw our room and immediately wanted to leave, but no front clerk to be found to get our money back.  The sheets were stained, the bathroom floor was broken up and had dried urine in front of toilet, dirty bathtub and sink. The toilet wasn't even bolted down!  Cockroaches behind the fridge.  The whole floor was sticky and dirty!  Almost fell down the stairs because the rubber runners were all loose.  We contacted the corporate office and they have no record of our stay, even though we have a paid receipt with our credit card number on it.  I can't give this place a number rating, because they don't offer a negative number!!  We won't be staying at any Motel 6 again!!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>First of all, Motel 6 advertises that you get an AARP or Senior discount, the clerk said there was no such discount.  We took the room because it was late in the night, we saw our room and immediately wanted to leave, but no front clerk to be found to get our money back.  The sheets were stained, the bathroom floor was broken up and had dried urine in front of toilet, dirty bathtub and sink. The toilet wasn't even bolted down!  Cockroaches behind the fridge.  The whole floor was sticky and dirty!  Almost fell down the stairs because the rubber runners were all loose.  We contacted the corporate office and they have no record of our stay, even though we have a paid receipt with our credit card number on it.  I can't give this place a number rating, because they don't offer a negative number!!  We won't be staying at any Motel 6 again!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d93098-r225031175-Motel_6_Harvey-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>225031175</t>
+  </si>
+  <si>
+    <t>08/28/2014</t>
+  </si>
+  <si>
+    <t>Motel 6   July 2014</t>
+  </si>
+  <si>
+    <t>This is the worst hotel I have ever stayed in. It's dirty and nasty.  I was scard to sleep on the sheets because that look like they had never been changed.  The tub was dirty. I had have enough, I requested my money back and left immediately.  Please don't stay there!!!!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Harvey, responded to this reviewResponded September 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 3, 2014</t>
+  </si>
+  <si>
+    <t>This is the worst hotel I have ever stayed in. It's dirty and nasty.  I was scard to sleep on the sheets because that look like they had never been changed.  The tub was dirty. I had have enough, I requested my money back and left immediately.  Please don't stay there!!!!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d93098-r216307266-Motel_6_Harvey-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>216307266</t>
+  </si>
+  <si>
+    <t>07/19/2014</t>
+  </si>
+  <si>
+    <t>My worst hotel ever</t>
+  </si>
+  <si>
+    <t>This Motel 6 is the worst I have ever stayed in. Dirty, terrible tenants, loud, falling apart. I stayed one night because I arrived too late to cancel. Left the next day. Hookers and drug dealers all over ALL night. I am starting to steer clear of all Motel 6's since they are taking over flop houses and fronting them with their reservation system. Stay clear of thisdump.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d93098-r211336798-Motel_6_Harvey-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>211336798</t>
+  </si>
+  <si>
+    <t>06/21/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don't stay here. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very unclean. Black mold everywhere. Pictures show it as being one of the "modernized" motel 6's, and it was, but it was so dilapidated and run down! Room had an awful smell (probably because of the 6 foot x 3 foot mold patch on the ceiling). Hotel seemed to have a lot of people who live there walking around. Very seedy. Avoid avoid avoid </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d93098-r201207032-Motel_6_Harvey-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>201207032</t>
+  </si>
+  <si>
+    <t>04/15/2014</t>
+  </si>
+  <si>
+    <t>Questionable</t>
+  </si>
+  <si>
+    <t>This place in a good place if u travel with pets like we do. But outside that this place is a joke the floor was like it was mopped with pop. Sticky as crap took me 4 days to hand scrub it and its still nasty. bad area very little parking due to resturant in front and people parking in back. i got handed dirty sheets and was forced to make my own bed when the help gets paid to do it. They say they r scared of dogs but i put my dog in a kennel so they can come in and clean but they still dont i have to take out my own trash make my own bed go to front desk for towels and toilet paper. people play loud music and it virbrated the windows but they dont care, room next to me had 2 dogs that will bark for hours and i called the front desk to make a complaint but nothing they can do since the guest might have been at work. So on the other hand this is a bad place to stay if u dont mind cleaning ur own room and pay for it. Also its next to a club seriously really move ur hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>This place in a good place if u travel with pets like we do. But outside that this place is a joke the floor was like it was mopped with pop. Sticky as crap took me 4 days to hand scrub it and its still nasty. bad area very little parking due to resturant in front and people parking in back. i got handed dirty sheets and was forced to make my own bed when the help gets paid to do it. They say they r scared of dogs but i put my dog in a kennel so they can come in and clean but they still dont i have to take out my own trash make my own bed go to front desk for towels and toilet paper. people play loud music and it virbrated the windows but they dont care, room next to me had 2 dogs that will bark for hours and i called the front desk to make a complaint but nothing they can do since the guest might have been at work. So on the other hand this is a bad place to stay if u dont mind cleaning ur own room and pay for it. Also its next to a club seriously really move ur hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d93098-r195617903-Motel_6_Harvey-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>195617903</t>
+  </si>
+  <si>
+    <t>02/27/2014</t>
+  </si>
+  <si>
+    <t>Not clean..I do not want to return to this motel-6.</t>
+  </si>
+  <si>
+    <t>Please don't stay at this hotel...Just bad,bad,bad..Not clean and a little dangerous outside your room..Neighborhood not good..I paid $62.00 for one night was not worth it..Everything was dirty from floor to bedding and bathroom..Look for a hotel off I-10 it may cost more but worth it..STAY AWAY FROM THIS HOTEL....</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d93098-r185641667-Motel_6_Harvey-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>185641667</t>
+  </si>
+  <si>
+    <t>11/23/2013</t>
+  </si>
+  <si>
+    <t>Worst Motel6 ever</t>
+  </si>
+  <si>
+    <t>Room was renovated and seemed nice. The fridge was 2 feet away from the wall so i pushed it back to the wall to discover that the floor was stained and disgusting. So i put the fridge back on the stain. The drain whole in the bathtub was completely blocked by hair. Water not not draining out. No facial tissue. AVOID THIS PLACEMoreShow less</t>
+  </si>
+  <si>
+    <t>Erika B, Director of Sales at Motel 6 Harvey, responded to this reviewResponded February 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 3, 2014</t>
+  </si>
+  <si>
+    <t>Room was renovated and seemed nice. The fridge was 2 feet away from the wall so i pushed it back to the wall to discover that the floor was stained and disgusting. So i put the fridge back on the stain. The drain whole in the bathtub was completely blocked by hair. Water not not draining out. No facial tissue. AVOID THIS PLACEMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d93098-r184402230-Motel_6_Harvey-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>184402230</t>
+  </si>
+  <si>
+    <t>11/11/2013</t>
+  </si>
+  <si>
+    <t>Housekeepers are thieves! !</t>
+  </si>
+  <si>
+    <t>Stayed there for 4 days visiting family in New Orleans. I had to ask housekeeping for clean sheets and towels and had to buy my own toilet paper because they left 1/3 of a roll. Housekeeper left the sheets and towels on a chair and didn't attempt to make the bed or put away the towels or take out the old ones and on her way out she left with a few of my items. I called the manager to complain and was told that I never stayed there but I have a bank statement with the amount and that address on it. He said they were not responsible for my items. I calked corporate and contacted my attorney in New Orleans.  Your housekeeper stole from the wrong person and I don't care how small the items were, she had no business touching my shid!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Motel6, Public Relations Manager at Motel 6 Harvey, responded to this reviewResponded November 21, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 21, 2013</t>
+  </si>
+  <si>
+    <t>Stayed there for 4 days visiting family in New Orleans. I had to ask housekeeping for clean sheets and towels and had to buy my own toilet paper because they left 1/3 of a roll. Housekeeper left the sheets and towels on a chair and didn't attempt to make the bed or put away the towels or take out the old ones and on her way out she left with a few of my items. I called the manager to complain and was told that I never stayed there but I have a bank statement with the amount and that address on it. He said they were not responsible for my items. I calked corporate and contacted my attorney in New Orleans.  Your housekeeper stole from the wrong person and I don't care how small the items were, she had no business touching my shid!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d93098-r184305160-Motel_6_Harvey-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>184305160</t>
+  </si>
+  <si>
+    <t>11/10/2013</t>
+  </si>
+  <si>
+    <t>Worst motel EVER!!!!</t>
+  </si>
+  <si>
+    <t>Have stayed in Motel 6 numerous times but this was "The Worst One" ever. The rooms were dirty, floors not clean, toilet paper role was half gone, tub was filthy, beds sheets and curtains had cigarette burns but was supposed to be a non smoking room and much more but not enough time to mention.  Also had some extended stay people there That were building barrell fires near the rooms and cussing, fighting n talking about drugs and where to get them.  Front desk people did not even care. We called them and finally corporate to complain.  DO NOT STAY HERE even if the last place available.  You will regret it.MoreShow less</t>
+  </si>
+  <si>
+    <t>Motel6, Public Relations Manager at Motel 6 Harvey, responded to this reviewResponded November 13, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 13, 2013</t>
+  </si>
+  <si>
+    <t>Have stayed in Motel 6 numerous times but this was "The Worst One" ever. The rooms were dirty, floors not clean, toilet paper role was half gone, tub was filthy, beds sheets and curtains had cigarette burns but was supposed to be a non smoking room and much more but not enough time to mention.  Also had some extended stay people there That were building barrell fires near the rooms and cussing, fighting n talking about drugs and where to get them.  Front desk people did not even care. We called them and finally corporate to complain.  DO NOT STAY HERE even if the last place available.  You will regret it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d93098-r182588064-Motel_6_Harvey-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>182588064</t>
+  </si>
+  <si>
+    <t>10/27/2013</t>
+  </si>
+  <si>
+    <t>The place was just NASTY!!!!</t>
+  </si>
+  <si>
+    <t>First walked in to the floor coming up and almost tripped curtains tore up pull back cover on bed sheets stained room smelled terrible..went right back to the office and asked for a refund..quick and in a hurry!!!Nasty!!!!Nasty!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Motel6, Public Relations Manager at Motel 6 Harvey, responded to this reviewResponded October 30, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 30, 2013</t>
+  </si>
+  <si>
+    <t>First walked in to the floor coming up and almost tripped curtains tore up pull back cover on bed sheets stained room smelled terrible..went right back to the office and asked for a refund..quick and in a hurry!!!Nasty!!!!Nasty!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d93098-r169172721-Motel_6_Harvey-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>169172721</t>
+  </si>
+  <si>
+    <t>07/26/2013</t>
+  </si>
+  <si>
+    <t>Great rooms</t>
+  </si>
+  <si>
+    <t>Motel 6 did a great job with the renovations done to the hotel the tvs are LED and the cable channels are awesome! The pool is a great place to take the kids especially during football season. I will come back to this hotel the next time I'm in Harvey. MoreShow less</t>
+  </si>
+  <si>
+    <t>Motel 6 did a great job with the renovations done to the hotel the tvs are LED and the cable channels are awesome! The pool is a great place to take the kids especially during football season. I will come back to this hotel the next time I'm in Harvey. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d93098-r154440691-Motel_6_Harvey-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>154440691</t>
+  </si>
+  <si>
+    <t>03/13/2013</t>
+  </si>
+  <si>
+    <t>Avoid at all cost</t>
+  </si>
+  <si>
+    <t>Take your own toilet paper and towels leave your car down the road the bars at the hotel take up all the parking and they have signs in front for the bars parking in rear that's the hotel lot house keeping has no clue period This place is not as pictured at all  The red light is on for the hookers all night Our mini fridge was thrown away by good will and then put in the roomMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>Take your own toilet paper and towels leave your car down the road the bars at the hotel take up all the parking and they have signs in front for the bars parking in rear that's the hotel lot house keeping has no clue period This place is not as pictured at all  The red light is on for the hookers all night Our mini fridge was thrown away by good will and then put in the roomMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d93098-r153075657-Motel_6_Harvey-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>153075657</t>
+  </si>
+  <si>
+    <t>02/25/2013</t>
+  </si>
+  <si>
+    <t>Clean Rooms and Nice Staff</t>
+  </si>
+  <si>
+    <t>The hotel is not in the best area, but the room was very clean and the staff was friendly. I would not stay here alone, but it was fine for a 1 night stay for the price since it was Mardi Gras. I would advise customers to beware of their surroundings since like I said, not the best neighborhood. It did look like some of the rooms were rented for the month as people were living there. Again, room was clean and nice staff, just not my first choice.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>The hotel is not in the best area, but the room was very clean and the staff was friendly. I would not stay here alone, but it was fine for a 1 night stay for the price since it was Mardi Gras. I would advise customers to beware of their surroundings since like I said, not the best neighborhood. It did look like some of the rooms were rented for the month as people were living there. Again, room was clean and nice staff, just not my first choice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d93098-r152920241-Motel_6_Harvey-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>152920241</t>
+  </si>
+  <si>
+    <t>02/23/2013</t>
+  </si>
+  <si>
+    <t>Never ever ever again even if it was free!!!</t>
+  </si>
+  <si>
+    <t>If u come here to sleep good luck!!! I was tempted to just leave and go find a parking lot downtown to sleep in cause it was not a peaceful place at all!!! There is a bar next door and they had several people in extremely loud vechiles leaving ALL hours of the night and their music was UNBEARABLE again ALL hours of the night!!! For sure not what u see in the pictures!!! Very nasty outside!!! I would not even allow my kids to touch anything outside!!! And in addition to the noise from music and the loud cars u could hear screaming and my kids were terrified!!! Just sad they would allow this place to even be called a place of business!!!! MoreShow less</t>
+  </si>
+  <si>
+    <t>If u come here to sleep good luck!!! I was tempted to just leave and go find a parking lot downtown to sleep in cause it was not a peaceful place at all!!! There is a bar next door and they had several people in extremely loud vechiles leaving ALL hours of the night and their music was UNBEARABLE again ALL hours of the night!!! For sure not what u see in the pictures!!! Very nasty outside!!! I would not even allow my kids to touch anything outside!!! And in addition to the noise from music and the loud cars u could hear screaming and my kids were terrified!!! Just sad they would allow this place to even be called a place of business!!!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d93098-r134442705-Motel_6_Harvey-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>134442705</t>
+  </si>
+  <si>
+    <t>07/15/2012</t>
+  </si>
+  <si>
+    <t>Beware Of Potential Credit Card Fraud</t>
+  </si>
+  <si>
+    <t>This property used to be a Day's Inn. It's now a Motel 6.
+I booked a reservation from April 24-28 at this property and stayed the night of April 24. There is a sign at the reservations desk that says no refunds after ten minutes. Let that be your first warning.
+Room was not clean: dust on counter tops throughout. Furniture old and broken: drawers would not slide in and out. Bathroom clean but toilet not bolted to floor: wobbled a bit. Basically the worst hotel I have stayed at. Below the quality that Motel 6 is supposed to represent.
+Checked out morning of April 25. Hotel swiped card for a refund of the remaining three days. The receipt said refund, I saw a negative balance, and signed. But two positive transactions appeared on my credit card: one from the Motel 6 web site when I booked the reservation and another for the refund: charged for eight total days even though I spent one (and cancelled eight hours before 6:00 PM). I should mention this property has two different credit card terminals connected to two different card processors.
+Got a customer satisfaction survey via email. Completed survey with low marks. Got a "we're sorry" letter from Motel 6 Corporate.
+Upon receipt of the second charge, went to the contact us link on Motel 6's web site. Wrote about the dual charges and complained that this was fraud. Got a letter...This property used to be a Day's Inn. It's now a Motel 6.I booked a reservation from April 24-28 at this property and stayed the night of April 24. There is a sign at the reservations desk that says no refunds after ten minutes. Let that be your first warning.Room was not clean: dust on counter tops throughout. Furniture old and broken: drawers would not slide in and out. Bathroom clean but toilet not bolted to floor: wobbled a bit. Basically the worst hotel I have stayed at. Below the quality that Motel 6 is supposed to represent.Checked out morning of April 25. Hotel swiped card for a refund of the remaining three days. The receipt said refund, I saw a negative balance, and signed. But two positive transactions appeared on my credit card: one from the Motel 6 web site when I booked the reservation and another for the refund: charged for eight total days even though I spent one (and cancelled eight hours before 6:00 PM). I should mention this property has two different credit card terminals connected to two different card processors.Got a customer satisfaction survey via email. Completed survey with low marks. Got a "we're sorry" letter from Motel 6 Corporate.Upon receipt of the second charge, went to the contact us link on Motel 6's web site. Wrote about the dual charges and complained that this was fraud. Got a letter asking for the dual charge details. Sent the transaction identifiers, dates, and amounts. Received a "we're sorry, talk to the property manager" letter. By that time I had filed a dispute with my credit union and didn't see the point of contacting the manager once the transactions were refunded.Bottom line: there is a reason this hotel is the cheapest in the New Orleans metropolitan area.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>This property used to be a Day's Inn. It's now a Motel 6.
+I booked a reservation from April 24-28 at this property and stayed the night of April 24. There is a sign at the reservations desk that says no refunds after ten minutes. Let that be your first warning.
+Room was not clean: dust on counter tops throughout. Furniture old and broken: drawers would not slide in and out. Bathroom clean but toilet not bolted to floor: wobbled a bit. Basically the worst hotel I have stayed at. Below the quality that Motel 6 is supposed to represent.
+Checked out morning of April 25. Hotel swiped card for a refund of the remaining three days. The receipt said refund, I saw a negative balance, and signed. But two positive transactions appeared on my credit card: one from the Motel 6 web site when I booked the reservation and another for the refund: charged for eight total days even though I spent one (and cancelled eight hours before 6:00 PM). I should mention this property has two different credit card terminals connected to two different card processors.
+Got a customer satisfaction survey via email. Completed survey with low marks. Got a "we're sorry" letter from Motel 6 Corporate.
+Upon receipt of the second charge, went to the contact us link on Motel 6's web site. Wrote about the dual charges and complained that this was fraud. Got a letter...This property used to be a Day's Inn. It's now a Motel 6.I booked a reservation from April 24-28 at this property and stayed the night of April 24. There is a sign at the reservations desk that says no refunds after ten minutes. Let that be your first warning.Room was not clean: dust on counter tops throughout. Furniture old and broken: drawers would not slide in and out. Bathroom clean but toilet not bolted to floor: wobbled a bit. Basically the worst hotel I have stayed at. Below the quality that Motel 6 is supposed to represent.Checked out morning of April 25. Hotel swiped card for a refund of the remaining three days. The receipt said refund, I saw a negative balance, and signed. But two positive transactions appeared on my credit card: one from the Motel 6 web site when I booked the reservation and another for the refund: charged for eight total days even though I spent one (and cancelled eight hours before 6:00 PM). I should mention this property has two different credit card terminals connected to two different card processors.Got a customer satisfaction survey via email. Completed survey with low marks. Got a "we're sorry" letter from Motel 6 Corporate.Upon receipt of the second charge, went to the contact us link on Motel 6's web site. Wrote about the dual charges and complained that this was fraud. Got a letter asking for the dual charge details. Sent the transaction identifiers, dates, and amounts. Received a "we're sorry, talk to the property manager" letter. By that time I had filed a dispute with my credit union and didn't see the point of contacting the manager once the transactions were refunded.Bottom line: there is a reason this hotel is the cheapest in the New Orleans metropolitan area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d93098-r31863628-Motel_6_Harvey-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>31863628</t>
+  </si>
+  <si>
+    <t>06/08/2009</t>
+  </si>
+  <si>
+    <t>Disgusting and don't seem to care</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel this weekend and it was the most disgusting place I had ever seen. My husband is in the military and had drill this weekend so I went with him for the ride and to relax. I did not want to take my shoes off in the place!!!  the carpets are sticky and moldy and people wondering outside were scary.  We were staying for two days and tried to cancell the second day and they will not give us the $$$ back. They came in to the room, took all our towels, and did not clean the room at all. I asked the manager when they were coming to clean them and she said they already did. I told her trust me, they did not and she looked at me like I was nuts and told me that maybe they forgot and that they only clean the rooms every 2 or three days!!!!!!  I asked where the towels were and she told me I had to wai a liitle for some to be available and that i would have to go get them!!!!  I am not a picky person and, even though I like cleaningness, I can deal with certain things, but this place is absolutely the nastiest and scariest place ever!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2009</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel this weekend and it was the most disgusting place I had ever seen. My husband is in the military and had drill this weekend so I went with him for the ride and to relax. I did not want to take my shoes off in the place!!!  the carpets are sticky and moldy and people wondering outside were scary.  We were staying for two days and tried to cancell the second day and they will not give us the $$$ back. They came in to the room, took all our towels, and did not clean the room at all. I asked the manager when they were coming to clean them and she said they already did. I told her trust me, they did not and she looked at me like I was nuts and told me that maybe they forgot and that they only clean the rooms every 2 or three days!!!!!!  I asked where the towels were and she told me I had to wai a liitle for some to be available and that i would have to go get them!!!!  I am not a picky person and, even though I like cleaningness, I can deal with certain things, but this place is absolutely the nastiest and scariest place ever!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d93098-r17591094-Motel_6_Harvey-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>17591094</t>
+  </si>
+  <si>
+    <t>07/06/2008</t>
+  </si>
+  <si>
+    <t>Horrible!!!</t>
+  </si>
+  <si>
+    <t>Not sure where to start, we had what was called a king suite, I hate to see what the regular rooms look like.  This hotel needs to be condemned; the carpet and bathroom are moldy, the smoke detector was not activated, the bathroom ceiling seemed like it was going to cave in at the simplest touch, oh...did I mention that we were watching tv around 11 pm and our lights (only our room) died, the so called security guard didn't have a flashlight, he had to depend on my husband's cell phone for light.  I am a frequent business/vacation traveler, I have never been to a hotel with a security guard (aka robo-cop).  I am glad we used reward points and didn't have to pay to stay in this dump, they should actually pay people to stay there....Oh, this was the worse, when we were getting ready for bed, the bedsheets/comforter had dead bugs and ants on them.  Talking about gross, the comforter and the sheets had holes in them...do I need to say more, if you want to stay in a hotel similar to the Bates Hotel this is the place for you. Don't say you weren't warned!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Not sure where to start, we had what was called a king suite, I hate to see what the regular rooms look like.  This hotel needs to be condemned; the carpet and bathroom are moldy, the smoke detector was not activated, the bathroom ceiling seemed like it was going to cave in at the simplest touch, oh...did I mention that we were watching tv around 11 pm and our lights (only our room) died, the so called security guard didn't have a flashlight, he had to depend on my husband's cell phone for light.  I am a frequent business/vacation traveler, I have never been to a hotel with a security guard (aka robo-cop).  I am glad we used reward points and didn't have to pay to stay in this dump, they should actually pay people to stay there....Oh, this was the worse, when we were getting ready for bed, the bedsheets/comforter had dead bugs and ants on them.  Talking about gross, the comforter and the sheets had holes in them...do I need to say more, if you want to stay in a hotel similar to the Bates Hotel this is the place for you. Don't say you weren't warned!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d93098-r3193740-Motel_6_Harvey-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>3193740</t>
+  </si>
+  <si>
+    <t>02/14/2005</t>
+  </si>
+  <si>
+    <t>Okay, but don't stay alone</t>
+  </si>
+  <si>
+    <t>The hotel was fine.  The staff was not helpful.  There is a dump of a strip club across the parking lot &amp; all kinds of unsavory characters lurking around.  There is a $1 toll bridge to get into the city.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d93098-r1520953-Motel_6_Harvey-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>1520953</t>
+  </si>
+  <si>
+    <t>12/17/2003</t>
+  </si>
+  <si>
+    <t>A true dump</t>
+  </si>
+  <si>
+    <t>Booked the Days Inn in Harvey through Orbitz while attending a convention in New Orleans. It was cheap but what a mistake! Had booked a non-smoking room but the room just stank of smoke. OK, no big deal. 
+But when I opened the bed the sheets were DIRTY! OK, perhaps an honest mistake. Went to the front desk, got keys for a different room. No smoke stink but THE SHEETS WERE DIRTY AGAIN! I asked if this was a joke or what. I would have been out of there usually but it was past midnight and I had just flown in so I gave them a third chance. I was surely willing to make my own bed if I could finally get some shut-eye and I asked the front desk for clean sheets. They said they didn't have any but there would be a spare set in the room. OK, went to room #3, checked the sheets in the bed (DIRTY!) and then the spare set -- DIRTY!! The spare set had actually some gooey red stuff in them (blood with something??). I took it to the front desk and invited them to touch the red stuff but they prudentlfy declined my offer.
+At that point I bailed. They actually had the gall to refuse returning me the blank credit card slip! I just asked for the phone to call American Express and let them know about it, and voila!...Booked the Days Inn in Harvey through Orbitz while attending a convention in New Orleans. It was cheap but what a mistake! Had booked a non-smoking room but the room just stank of smoke. OK, no big deal. But when I opened the bed the sheets were DIRTY! OK, perhaps an honest mistake. Went to the front desk, got keys for a different room. No smoke stink but THE SHEETS WERE DIRTY AGAIN! I asked if this was a joke or what. I would have been out of there usually but it was past midnight and I had just flown in so I gave them a third chance. I was surely willing to make my own bed if I could finally get some shut-eye and I asked the front desk for clean sheets. They said they didn't have any but there would be a spare set in the room. OK, went to room #3, checked the sheets in the bed (DIRTY!) and then the spare set -- DIRTY!! The spare set had actually some gooey red stuff in them (blood with something??). I took it to the front desk and invited them to touch the red stuff but they prudentlfy declined my offer.At that point I bailed. They actually had the gall to refuse returning me the blank credit card slip! I just asked for the phone to call American Express and let them know about it, and voila! no problem, they gave me the form and let me tear it up.Was lucky to find a room in a Holiday Inn not far away. What a nightmare!MoreShow less</t>
+  </si>
+  <si>
+    <t>Booked the Days Inn in Harvey through Orbitz while attending a convention in New Orleans. It was cheap but what a mistake! Had booked a non-smoking room but the room just stank of smoke. OK, no big deal. 
+But when I opened the bed the sheets were DIRTY! OK, perhaps an honest mistake. Went to the front desk, got keys for a different room. No smoke stink but THE SHEETS WERE DIRTY AGAIN! I asked if this was a joke or what. I would have been out of there usually but it was past midnight and I had just flown in so I gave them a third chance. I was surely willing to make my own bed if I could finally get some shut-eye and I asked the front desk for clean sheets. They said they didn't have any but there would be a spare set in the room. OK, went to room #3, checked the sheets in the bed (DIRTY!) and then the spare set -- DIRTY!! The spare set had actually some gooey red stuff in them (blood with something??). I took it to the front desk and invited them to touch the red stuff but they prudentlfy declined my offer.
+At that point I bailed. They actually had the gall to refuse returning me the blank credit card slip! I just asked for the phone to call American Express and let them know about it, and voila!...Booked the Days Inn in Harvey through Orbitz while attending a convention in New Orleans. It was cheap but what a mistake! Had booked a non-smoking room but the room just stank of smoke. OK, no big deal. But when I opened the bed the sheets were DIRTY! OK, perhaps an honest mistake. Went to the front desk, got keys for a different room. No smoke stink but THE SHEETS WERE DIRTY AGAIN! I asked if this was a joke or what. I would have been out of there usually but it was past midnight and I had just flown in so I gave them a third chance. I was surely willing to make my own bed if I could finally get some shut-eye and I asked the front desk for clean sheets. They said they didn't have any but there would be a spare set in the room. OK, went to room #3, checked the sheets in the bed (DIRTY!) and then the spare set -- DIRTY!! The spare set had actually some gooey red stuff in them (blood with something??). I took it to the front desk and invited them to touch the red stuff but they prudentlfy declined my offer.At that point I bailed. They actually had the gall to refuse returning me the blank credit card slip! I just asked for the phone to call American Express and let them know about it, and voila! no problem, they gave me the form and let me tear it up.Was lucky to find a room in a Holiday Inn not far away. What a nightmare!More</t>
   </si>
   <si>
     <t>Hotel_Name</t>
@@ -558,6 +1301,2081 @@
         <v>24</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>4144</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>4144</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4144</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>48</v>
+      </c>
+      <c r="X4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4144</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>57</v>
+      </c>
+      <c r="X5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4144</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6" t="s">
+        <v>63</v>
+      </c>
+      <c r="L6" t="s">
+        <v>64</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>65</v>
+      </c>
+      <c r="O6" t="s">
+        <v>66</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>67</v>
+      </c>
+      <c r="X6" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>4144</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>75</v>
+      </c>
+      <c r="O7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>4144</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" t="s">
+        <v>79</v>
+      </c>
+      <c r="L8" t="s">
+        <v>80</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O8" t="s">
+        <v>34</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>4144</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>83</v>
+      </c>
+      <c r="J9" t="s">
+        <v>84</v>
+      </c>
+      <c r="K9" t="s">
+        <v>85</v>
+      </c>
+      <c r="L9" t="s">
+        <v>86</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>87</v>
+      </c>
+      <c r="O9" t="s">
+        <v>88</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>4144</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10" t="s">
+        <v>92</v>
+      </c>
+      <c r="K10" t="s">
+        <v>93</v>
+      </c>
+      <c r="L10" t="s">
+        <v>94</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>95</v>
+      </c>
+      <c r="O10" t="s">
+        <v>96</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>4144</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>98</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>99</v>
+      </c>
+      <c r="J11" t="s">
+        <v>100</v>
+      </c>
+      <c r="K11" t="s">
+        <v>101</v>
+      </c>
+      <c r="L11" t="s">
+        <v>102</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>103</v>
+      </c>
+      <c r="O11" t="s">
+        <v>66</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>104</v>
+      </c>
+      <c r="X11" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4144</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
+        <v>108</v>
+      </c>
+      <c r="J12" t="s">
+        <v>109</v>
+      </c>
+      <c r="K12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L12" t="s">
+        <v>111</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>112</v>
+      </c>
+      <c r="O12" t="s">
+        <v>34</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>113</v>
+      </c>
+      <c r="X12" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>4144</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>117</v>
+      </c>
+      <c r="J13" t="s">
+        <v>118</v>
+      </c>
+      <c r="K13" t="s">
+        <v>119</v>
+      </c>
+      <c r="L13" t="s">
+        <v>120</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>121</v>
+      </c>
+      <c r="O13" t="s">
+        <v>66</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>122</v>
+      </c>
+      <c r="X13" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>4144</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>126</v>
+      </c>
+      <c r="J14" t="s">
+        <v>127</v>
+      </c>
+      <c r="K14" t="s">
+        <v>128</v>
+      </c>
+      <c r="L14" t="s">
+        <v>129</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>130</v>
+      </c>
+      <c r="O14" t="s">
+        <v>34</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>131</v>
+      </c>
+      <c r="X14" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4144</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>134</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" t="s">
+        <v>135</v>
+      </c>
+      <c r="J15" t="s">
+        <v>136</v>
+      </c>
+      <c r="K15" t="s">
+        <v>137</v>
+      </c>
+      <c r="L15" t="s">
+        <v>138</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
+      <c r="P15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>4144</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
+        <v>141</v>
+      </c>
+      <c r="J16" t="s">
+        <v>142</v>
+      </c>
+      <c r="K16" t="s">
+        <v>143</v>
+      </c>
+      <c r="L16" t="s">
+        <v>144</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>145</v>
+      </c>
+      <c r="O16" t="s">
+        <v>34</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>4144</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>147</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s">
+        <v>148</v>
+      </c>
+      <c r="J17" t="s">
+        <v>149</v>
+      </c>
+      <c r="K17" t="s">
+        <v>150</v>
+      </c>
+      <c r="L17" t="s">
+        <v>151</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>152</v>
+      </c>
+      <c r="O17" t="s">
+        <v>41</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>153</v>
+      </c>
+      <c r="X17" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>4144</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>156</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" t="s">
+        <v>157</v>
+      </c>
+      <c r="J18" t="s">
+        <v>158</v>
+      </c>
+      <c r="K18" t="s">
+        <v>159</v>
+      </c>
+      <c r="L18" t="s">
+        <v>160</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>152</v>
+      </c>
+      <c r="O18" t="s">
+        <v>88</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4144</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
+        <v>161</v>
+      </c>
+      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" t="s">
+        <v>162</v>
+      </c>
+      <c r="J19" t="s">
+        <v>163</v>
+      </c>
+      <c r="K19" t="s">
+        <v>164</v>
+      </c>
+      <c r="L19" t="s">
+        <v>165</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>4144</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>166</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" t="s">
+        <v>167</v>
+      </c>
+      <c r="J20" t="s">
+        <v>168</v>
+      </c>
+      <c r="K20" t="s">
+        <v>169</v>
+      </c>
+      <c r="L20" t="s">
+        <v>170</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>171</v>
+      </c>
+      <c r="O20" t="s">
+        <v>88</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>4144</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" t="s">
+        <v>173</v>
+      </c>
+      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" t="s">
+        <v>174</v>
+      </c>
+      <c r="J21" t="s">
+        <v>175</v>
+      </c>
+      <c r="K21" t="s">
+        <v>176</v>
+      </c>
+      <c r="L21" t="s">
+        <v>177</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>178</v>
+      </c>
+      <c r="O21" t="s">
+        <v>88</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>4144</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" t="s">
+        <v>179</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" t="s">
+        <v>180</v>
+      </c>
+      <c r="J22" t="s">
+        <v>181</v>
+      </c>
+      <c r="K22" t="s">
+        <v>182</v>
+      </c>
+      <c r="L22" t="s">
+        <v>183</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
+      <c r="P22" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>2</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>184</v>
+      </c>
+      <c r="X22" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>4144</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" t="s">
+        <v>188</v>
+      </c>
+      <c r="J23" t="s">
+        <v>189</v>
+      </c>
+      <c r="K23" t="s">
+        <v>190</v>
+      </c>
+      <c r="L23" t="s">
+        <v>191</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>192</v>
+      </c>
+      <c r="X23" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>4144</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" t="s">
+        <v>195</v>
+      </c>
+      <c r="G24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" t="s">
+        <v>196</v>
+      </c>
+      <c r="J24" t="s">
+        <v>197</v>
+      </c>
+      <c r="K24" t="s">
+        <v>198</v>
+      </c>
+      <c r="L24" t="s">
+        <v>199</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>200</v>
+      </c>
+      <c r="X24" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>4144</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" t="s">
+        <v>203</v>
+      </c>
+      <c r="G25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" t="s">
+        <v>204</v>
+      </c>
+      <c r="J25" t="s">
+        <v>205</v>
+      </c>
+      <c r="K25" t="s">
+        <v>206</v>
+      </c>
+      <c r="L25" t="s">
+        <v>207</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>208</v>
+      </c>
+      <c r="X25" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>4144</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" t="s">
+        <v>211</v>
+      </c>
+      <c r="G26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" t="s">
+        <v>212</v>
+      </c>
+      <c r="J26" t="s">
+        <v>213</v>
+      </c>
+      <c r="K26" t="s">
+        <v>214</v>
+      </c>
+      <c r="L26" t="s">
+        <v>215</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>184</v>
+      </c>
+      <c r="X26" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>4144</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" t="s">
+        <v>217</v>
+      </c>
+      <c r="G27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" t="s">
+        <v>218</v>
+      </c>
+      <c r="J27" t="s">
+        <v>219</v>
+      </c>
+      <c r="K27" t="s">
+        <v>220</v>
+      </c>
+      <c r="L27" t="s">
+        <v>221</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>222</v>
+      </c>
+      <c r="O27" t="s">
+        <v>34</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>184</v>
+      </c>
+      <c r="X27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>4144</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" t="s">
+        <v>224</v>
+      </c>
+      <c r="G28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" t="s">
+        <v>225</v>
+      </c>
+      <c r="J28" t="s">
+        <v>226</v>
+      </c>
+      <c r="K28" t="s">
+        <v>227</v>
+      </c>
+      <c r="L28" t="s">
+        <v>228</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>229</v>
+      </c>
+      <c r="O28" t="s">
+        <v>96</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>3</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>184</v>
+      </c>
+      <c r="X28" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>4144</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" t="s">
+        <v>231</v>
+      </c>
+      <c r="G29" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" t="s">
+        <v>232</v>
+      </c>
+      <c r="J29" t="s">
+        <v>233</v>
+      </c>
+      <c r="K29" t="s">
+        <v>234</v>
+      </c>
+      <c r="L29" t="s">
+        <v>235</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>184</v>
+      </c>
+      <c r="X29" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>4144</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" t="s">
+        <v>237</v>
+      </c>
+      <c r="G30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" t="s">
+        <v>238</v>
+      </c>
+      <c r="J30" t="s">
+        <v>239</v>
+      </c>
+      <c r="K30" t="s">
+        <v>240</v>
+      </c>
+      <c r="L30" t="s">
+        <v>241</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>242</v>
+      </c>
+      <c r="O30" t="s">
+        <v>41</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="n">
+        <v>2</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>4144</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" t="s">
+        <v>244</v>
+      </c>
+      <c r="G31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" t="s">
+        <v>245</v>
+      </c>
+      <c r="J31" t="s">
+        <v>246</v>
+      </c>
+      <c r="K31" t="s">
+        <v>247</v>
+      </c>
+      <c r="L31" t="s">
+        <v>248</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>249</v>
+      </c>
+      <c r="O31" t="s">
+        <v>34</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>4144</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" t="s">
+        <v>251</v>
+      </c>
+      <c r="G32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" t="s">
+        <v>252</v>
+      </c>
+      <c r="J32" t="s">
+        <v>253</v>
+      </c>
+      <c r="K32" t="s">
+        <v>254</v>
+      </c>
+      <c r="L32" t="s">
+        <v>255</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>4144</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" t="s">
+        <v>257</v>
+      </c>
+      <c r="G33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" t="s">
+        <v>258</v>
+      </c>
+      <c r="J33" t="s">
+        <v>259</v>
+      </c>
+      <c r="K33" t="s">
+        <v>260</v>
+      </c>
+      <c r="L33" t="s">
+        <v>261</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>4144</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" t="s">
+        <v>262</v>
+      </c>
+      <c r="G34" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" t="s">
+        <v>263</v>
+      </c>
+      <c r="J34" t="s">
+        <v>264</v>
+      </c>
+      <c r="K34" t="s">
+        <v>265</v>
+      </c>
+      <c r="L34" t="s">
+        <v>266</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>267</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
@@ -580,31 +3398,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>268</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>269</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>270</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>271</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
+        <v>272</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
+        <v>273</v>
       </c>
       <c r="H1" t="s">
-        <v>31</v>
+        <v>274</v>
       </c>
       <c r="I1" t="s">
-        <v>32</v>
+        <v>275</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2">
@@ -612,31 +3430,31 @@
         <v>4144</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>277</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>278</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>279</v>
       </c>
       <c r="E2" t="n">
         <v>70058</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>280</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>277</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>281</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>282</v>
       </c>
       <c r="J2" t="s">
-        <v>40</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
